--- a/spliced/falling/2023-03-25_17-55-35/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-35/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-0.1456913650035858</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.050854530185461</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0387899428606033</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.0474947728216648</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-55-35/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-35/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0442877300083637</v>
+        <v>-0.0421497002243995</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0798706337809562</v>
+        <v>0.0813977941870689</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0123700210824608</v>
+        <v>-0.0167987942695617</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0595593601465225</v>
+        <v>-0.0009162978967650999</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0303905457258224</v>
+        <v>-0.0372627787292003</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0181732401251792</v>
+        <v>-0.051312681287527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.00534507073462</v>
+        <v>-0.0261144898831844</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0339030213654041</v>
+        <v>0.06383541971445079</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0303905457258224</v>
+        <v>-0.0560468845069408</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0459676086902618</v>
+        <v>0.0224492978304624</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0532979927957057</v>
+        <v>0.0224492978304624</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1757764816284179</v>
+        <v>0.0267253536731004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1426370292901992</v>
+        <v>0.0284052342176437</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.4100432991981506</v>
+        <v>-0.0120645882561802</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1085812970995903</v>
+        <v>0.0143553335219621</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.1237002089619636</v>
+        <v>0.0213802829384803</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3216205537319183</v>
+        <v>0.0073303831741213</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0311541277915239</v>
+        <v>-0.0117591563612222</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2638937830924988</v>
+        <v>-0.0149661982432007</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4506658315658569</v>
+        <v>0.042302418500185</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1346957832574844</v>
+        <v>0.0258090570569038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.3332269787788391</v>
+        <v>0.0442877300083637</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4558582007884979</v>
+        <v>0.0798706337809562</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0723875313997268</v>
+        <v>0.0123700210824608</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0320704244077205</v>
+        <v>0.0595593601465225</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.7147123217582703</v>
+        <v>0.0303905457258224</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0733038261532783</v>
+        <v>0.0181732401251792</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2872593700885772</v>
+        <v>-0.00534507073462</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7376197576522827</v>
+        <v>-0.0339030213654041</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3023782968521118</v>
+        <v>0.0303905457258224</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.120784997940064</v>
+        <v>0.0459676086902618</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9436340928077698</v>
+        <v>-0.0532979927957057</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.777909755706787</v>
+        <v>0.1757764816284179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.083369493484497</v>
+        <v>-0.1426370292901992</v>
       </c>
       <c r="B13" t="n">
-        <v>2.2501220703125</v>
+        <v>-0.4100432991981506</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.494189977645874</v>
+        <v>-0.1085812970995903</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.2246456891298294</v>
+        <v>-0.1237002089619636</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6049093008041382</v>
+        <v>-0.3216205537319183</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3110831379890442</v>
+        <v>-0.0311541277915239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0445931628346443</v>
+        <v>-0.2638937830924988</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2460259795188903</v>
+        <v>-0.4506658315658569</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2205223590135574</v>
+        <v>-0.1346957832574844</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0360410511493682</v>
+        <v>-0.3332269787788391</v>
       </c>
       <c r="B16" t="n">
-        <v>1.270752429962158</v>
+        <v>-0.4558582007884979</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1033889427781105</v>
+        <v>-0.0723875313997268</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1259909570217132</v>
+        <v>0.0320704244077205</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7915286421775818</v>
+        <v>-0.7147123217582703</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2243402600288391</v>
+        <v>0.0733038261532783</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.180816113948822</v>
+        <v>0.2872593700885772</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.5984952449798584</v>
+        <v>0.7376197576522827</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3129157125949859</v>
+        <v>-0.3023782968521118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1476766765117645</v>
+        <v>-1.120784997940064</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3284927904605865</v>
+        <v>0.9436340928077698</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2247984111309051</v>
+        <v>-2.777909755706787</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0265726372599601</v>
+        <v>-1.083369493484497</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0389426611363887</v>
+        <v>2.2501220703125</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1386664062738418</v>
+        <v>-0.494189977645874</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.2246456891298294</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6049093008041382</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.3110831379890442</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.0445931628346443</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.2460259795188903</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2205223590135574</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.0360410511493682</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.270752429962158</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1033889427781105</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.1259909570217132</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7915286421775818</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2243402600288391</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.180816113948822</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.5984952449798584</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.3129157125949859</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.1476766765117645</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3284927904605865</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2247984111309051</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0265726372599601</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0389426611363887</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1386664062738418</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>-0.06856962293386459</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>-0.0618501044809818</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>-0.1456913650035858</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.050854530185461</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.0387899428606033</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.0474947728216648</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.0007635815418325</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0126754539087414</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0435241498053073</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.027030786499381</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0493273697793483</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.0366519130766391</v>
       </c>
     </row>
   </sheetData>
